--- a/predictions/Прогнозы_ETS_CM4dt.xlsx
+++ b/predictions/Прогнозы_ETS_CM4dt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18750150.95180722</v>
+        <v>18373368.78935857</v>
       </c>
       <c r="C2" t="n">
-        <v>20315145.52683192</v>
+        <v>18816280.68565922</v>
       </c>
       <c r="D2" t="n">
-        <v>20736184.16915875</v>
+        <v>19107760.77259284</v>
       </c>
       <c r="E2" t="n">
-        <v>21005793.31154176</v>
+        <v>17026805.2683477</v>
       </c>
       <c r="F2" t="n">
-        <v>19349455.95667259</v>
+        <v>18869966.27486316</v>
       </c>
       <c r="G2" t="n">
-        <v>20902464.19626618</v>
+        <v>19302270.08651529</v>
       </c>
       <c r="H2" t="n">
-        <v>21311756.23457729</v>
+        <v>19583368.69377362</v>
       </c>
       <c r="I2" t="n">
-        <v>21569853.70963753</v>
+        <v>17492253.47419632</v>
       </c>
       <c r="J2" t="n">
-        <v>19902234.92531242</v>
+        <v>19325471.79249594</v>
       </c>
       <c r="K2" t="n">
-        <v>21444187.36846916</v>
+        <v>19748045.30701615</v>
       </c>
       <c r="L2" t="n">
-        <v>21842644.73061352</v>
+        <v>20019621.4712269</v>
       </c>
       <c r="M2" t="n">
-        <v>22090124.22728488</v>
+        <v>17919187.22260403</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15399915.20755333</v>
+        <v>13470216.19467332</v>
       </c>
       <c r="C3" t="n">
-        <v>15772175.87268509</v>
+        <v>14335593.76218251</v>
       </c>
       <c r="D3" t="n">
-        <v>17358863.27733411</v>
+        <v>13787617.63742664</v>
       </c>
       <c r="E3" t="n">
-        <v>17494740.96855357</v>
+        <v>13644461.64559387</v>
       </c>
       <c r="F3" t="n">
-        <v>18546366.92911398</v>
+        <v>13635184.70458207</v>
       </c>
       <c r="G3" t="n">
-        <v>18855139.89235639</v>
+        <v>14483322.73709821</v>
       </c>
       <c r="H3" t="n">
-        <v>20379620.62169708</v>
+        <v>13919908.64279316</v>
       </c>
       <c r="I3" t="n">
-        <v>20454546.81620524</v>
+        <v>13762927.97970924</v>
       </c>
       <c r="J3" t="n">
-        <v>21446451.13221651</v>
+        <v>13741271.07288694</v>
       </c>
       <c r="K3" t="n">
-        <v>21696707.48766262</v>
+        <v>14578322.87046231</v>
       </c>
       <c r="L3" t="n">
-        <v>23163852.33126477</v>
+        <v>14004981.07465604</v>
       </c>
       <c r="M3" t="n">
-        <v>23182599.53800819</v>
+        <v>13839110.17447865</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25419889.44365541</v>
+        <v>62647640.90193507</v>
       </c>
       <c r="C4" t="n">
-        <v>28275867.66478724</v>
+        <v>70254793.43659937</v>
       </c>
       <c r="D4" t="n">
-        <v>29458191.87130616</v>
+        <v>79603133.85507858</v>
       </c>
       <c r="E4" t="n">
-        <v>31700340.42767917</v>
+        <v>88171954.46433324</v>
       </c>
       <c r="F4" t="n">
-        <v>32646748.80709147</v>
+        <v>96593083.08245389</v>
       </c>
       <c r="G4" t="n">
-        <v>34664030.35135573</v>
+        <v>103521323.7635481</v>
       </c>
       <c r="H4" t="n">
-        <v>35104990.9105313</v>
+        <v>112204330.6257281</v>
       </c>
       <c r="I4" t="n">
-        <v>36691813.08638853</v>
+        <v>120121124.408805</v>
       </c>
       <c r="J4" t="n">
-        <v>37058947.49338683</v>
+        <v>127903266.795087</v>
       </c>
       <c r="K4" t="n">
-        <v>38564181.38461415</v>
+        <v>134205301.0256386</v>
       </c>
       <c r="L4" t="n">
-        <v>38552518.81299723</v>
+        <v>142274625.6218129</v>
       </c>
       <c r="M4" t="n">
-        <v>39739246.00294184</v>
+        <v>149590010.8386197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21411515.35002323</v>
+        <v>30104840.6856061</v>
       </c>
       <c r="C5" t="n">
-        <v>23888781.64353092</v>
+        <v>31544657.19421498</v>
       </c>
       <c r="D5" t="n">
-        <v>26287720.64000193</v>
+        <v>37153145.31524619</v>
       </c>
       <c r="E5" t="n">
-        <v>29299416.62479841</v>
+        <v>29431174.88746274</v>
       </c>
       <c r="F5" t="n">
-        <v>32080620.9781072</v>
+        <v>34775710.13121108</v>
       </c>
       <c r="G5" t="n">
-        <v>34344479.53222578</v>
+        <v>36122101.85275966</v>
       </c>
       <c r="H5" t="n">
-        <v>36534279.45669356</v>
+        <v>41639033.83044647</v>
       </c>
       <c r="I5" t="n">
-        <v>39341019.65327179</v>
+        <v>33827338.52720045</v>
       </c>
       <c r="J5" t="n">
-        <v>41921367.8264235</v>
+        <v>39083943.5351099</v>
       </c>
       <c r="K5" t="n">
-        <v>43988387.80643783</v>
+        <v>40344163.76480827</v>
       </c>
       <c r="L5" t="n">
-        <v>45985286.40108298</v>
+        <v>45776647.81696814</v>
       </c>
       <c r="M5" t="n">
-        <v>48602983.75777743</v>
+        <v>37882193.68046203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10960329.77569298</v>
+        <v>157110.5282791986</v>
       </c>
       <c r="C6" t="n">
-        <v>12920596.56495097</v>
+        <v>1406027.005559739</v>
       </c>
       <c r="D6" t="n">
-        <v>12823526.54964471</v>
+        <v>261483.4449018699</v>
       </c>
       <c r="E6" t="n">
-        <v>15585605.10151469</v>
+        <v>1542148.490801098</v>
       </c>
       <c r="F6" t="n">
-        <v>12823561.46519087</v>
+        <v>128354.2060494276</v>
       </c>
       <c r="G6" t="n">
-        <v>14746554.6244383</v>
+        <v>1377846.503594079</v>
       </c>
       <c r="H6" t="n">
-        <v>14612956.63168954</v>
+        <v>233867.2329019089</v>
       </c>
       <c r="I6" t="n">
-        <v>17339237.94203349</v>
+        <v>1515085.269352589</v>
       </c>
       <c r="J6" t="n">
-        <v>14542113.18185358</v>
+        <v>101832.9019990361</v>
       </c>
       <c r="K6" t="n">
-        <v>16430727.00910383</v>
+        <v>1351856.265518705</v>
       </c>
       <c r="L6" t="n">
-        <v>16263437.43699118</v>
+        <v>208397.426668733</v>
       </c>
       <c r="M6" t="n">
-        <v>18956701.16223119</v>
+        <v>1490125.473768023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2593623.318970604</v>
+        <v>13066229.15483342</v>
       </c>
       <c r="C7" t="n">
-        <v>3450656.029462236</v>
+        <v>13093098.11928896</v>
       </c>
       <c r="D7" t="n">
-        <v>3411922.208571448</v>
+        <v>13375161.30452535</v>
       </c>
       <c r="E7" t="n">
-        <v>4015796.430085828</v>
+        <v>13170236.56315384</v>
       </c>
       <c r="F7" t="n">
-        <v>2977367.622705611</v>
+        <v>13539852.29973386</v>
       </c>
       <c r="G7" t="n">
-        <v>3826724.844129206</v>
+        <v>13557248.69626872</v>
       </c>
       <c r="H7" t="n">
-        <v>3780469.056012557</v>
+        <v>13830028.76704334</v>
       </c>
       <c r="I7" t="n">
-        <v>4376971.761465172</v>
+        <v>13616006.57555776</v>
       </c>
       <c r="J7" t="n">
-        <v>3331318.879927596</v>
+        <v>13976706.81304327</v>
       </c>
       <c r="K7" t="n">
-        <v>4173596.520028465</v>
+        <v>13985366.02244248</v>
       </c>
       <c r="L7" t="n">
-        <v>4120402.753339984</v>
+        <v>14249583.65176157</v>
       </c>
       <c r="M7" t="n">
-        <v>4710106.250694138</v>
+        <v>14027170.26954822</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1254859.64454265</v>
+        <v>18357032.26417157</v>
       </c>
       <c r="C8" t="n">
-        <v>1614031.55489916</v>
+        <v>19414821.82967859</v>
       </c>
       <c r="D8" t="n">
-        <v>1740870.702606146</v>
+        <v>19892392.92419411</v>
       </c>
       <c r="E8" t="n">
-        <v>1596257.664548571</v>
+        <v>16346910.54350983</v>
       </c>
       <c r="F8" t="n">
-        <v>1315912.566540411</v>
+        <v>18548870.05846392</v>
       </c>
       <c r="G8" t="n">
-        <v>1673863.244699264</v>
+        <v>19602814.67471921</v>
       </c>
       <c r="H8" t="n">
-        <v>1799505.588328195</v>
+        <v>20076617.8831853</v>
       </c>
       <c r="I8" t="n">
-        <v>1653719.685680251</v>
+        <v>16527443.13509847</v>
       </c>
       <c r="J8" t="n">
-        <v>1372225.183711523</v>
+        <v>18725784.28769857</v>
       </c>
       <c r="K8" t="n">
-        <v>1729049.449260244</v>
+        <v>19776183.0633867</v>
       </c>
       <c r="L8" t="n">
-        <v>1853587.911737035</v>
+        <v>20246511.49953935</v>
       </c>
       <c r="M8" t="n">
-        <v>1706720.20870166</v>
+        <v>16693931.62299238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11645391.06452063</v>
+        <v>28032797.049585</v>
       </c>
       <c r="C9" t="n">
-        <v>14157091.55944459</v>
+        <v>28088375.88617662</v>
       </c>
       <c r="D9" t="n">
-        <v>16354458.44941281</v>
+        <v>30874467.01249456</v>
       </c>
       <c r="E9" t="n">
-        <v>18441493.59969212</v>
+        <v>26501432.41965745</v>
       </c>
       <c r="F9" t="n">
-        <v>20202656.11826722</v>
+        <v>29220983.72333616</v>
       </c>
       <c r="G9" t="n">
-        <v>21937257.74016136</v>
+        <v>29252798.82645276</v>
       </c>
       <c r="H9" t="n">
-        <v>23428095.34383937</v>
+        <v>32015601.49396517</v>
       </c>
       <c r="I9" t="n">
-        <v>24872762.25796427</v>
+        <v>27619744.21149866</v>
       </c>
       <c r="J9" t="n">
-        <v>26049891.02333605</v>
+        <v>30316929.27934054</v>
       </c>
       <c r="K9" t="n">
-        <v>27253495.92764222</v>
+        <v>30326825.47133705</v>
       </c>
       <c r="L9" t="n">
-        <v>28261557.4716444</v>
+        <v>33068147.60595177</v>
       </c>
       <c r="M9" t="n">
-        <v>29267289.98923508</v>
+        <v>28651239.40124553</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6205039.798413352</v>
+        <v>15179743.62296778</v>
       </c>
       <c r="C10" t="n">
-        <v>6806992.514595832</v>
+        <v>16407097.68707577</v>
       </c>
       <c r="D10" t="n">
-        <v>8044164.197599838</v>
+        <v>16599540.73722453</v>
       </c>
       <c r="E10" t="n">
-        <v>10081130.80495831</v>
+        <v>15646327.36013881</v>
       </c>
       <c r="F10" t="n">
-        <v>8194617.432924733</v>
+        <v>15674292.72189672</v>
       </c>
       <c r="G10" t="n">
-        <v>8756778.32912413</v>
+        <v>16891747.69679808</v>
       </c>
       <c r="H10" t="n">
-        <v>9954954.033890612</v>
+        <v>17074489.80180181</v>
       </c>
       <c r="I10" t="n">
-        <v>11953704.58781529</v>
+        <v>16111769.65750321</v>
       </c>
       <c r="J10" t="n">
-        <v>10029739.48855078</v>
+        <v>16130418.54323857</v>
       </c>
       <c r="K10" t="n">
-        <v>10555197.69709538</v>
+        <v>17338743.52436442</v>
       </c>
       <c r="L10" t="n">
-        <v>11717404.77289103</v>
+        <v>17512538.38513768</v>
       </c>
       <c r="M10" t="n">
-        <v>13680906.07525655</v>
+        <v>16541050.08816694</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1645145.13427632</v>
+        <v>20087456.62312153</v>
       </c>
       <c r="C11" t="n">
-        <v>249735.7532618665</v>
+        <v>20329995.77361173</v>
       </c>
       <c r="D11" t="n">
-        <v>1106928.25077347</v>
+        <v>20656031.54381549</v>
       </c>
       <c r="E11" t="n">
-        <v>260954.0564573013</v>
+        <v>20451441.81981476</v>
       </c>
       <c r="F11" t="n">
-        <v>1681331.149650958</v>
+        <v>22020330.11046746</v>
       </c>
       <c r="G11" t="n">
-        <v>283950.2645047018</v>
+        <v>22224209.31039618</v>
       </c>
       <c r="H11" t="n">
-        <v>1139278.6703338</v>
+        <v>22512358.37866916</v>
       </c>
       <c r="I11" t="n">
-        <v>291541.9446869938</v>
+        <v>22270639.73540328</v>
       </c>
       <c r="J11" t="n">
-        <v>1710252.533641275</v>
+        <v>23803141.73283056</v>
       </c>
       <c r="K11" t="n">
-        <v>311295.9395521012</v>
+        <v>23971362.41209964</v>
       </c>
       <c r="L11" t="n">
-        <v>1165134.484981133</v>
+        <v>24224566.17589336</v>
       </c>
       <c r="M11" t="n">
-        <v>315989.0702349439</v>
+        <v>23948601.17908958</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>500816.3809345852</v>
+        <v>45037864.58689249</v>
       </c>
       <c r="C12" t="n">
-        <v>603230.1800532779</v>
+        <v>47171646.46316848</v>
       </c>
       <c r="D12" t="n">
-        <v>959345.4125227918</v>
+        <v>41176973.86391792</v>
       </c>
       <c r="E12" t="n">
-        <v>627669.3451263634</v>
+        <v>41433598.91313666</v>
       </c>
       <c r="F12" t="n">
-        <v>490324.9513281913</v>
+        <v>45935155.2902292</v>
       </c>
       <c r="G12" t="n">
-        <v>592952.3275334267</v>
+        <v>48050975.28054504</v>
       </c>
       <c r="H12" t="n">
-        <v>949276.7892385604</v>
+        <v>42038700.35477928</v>
       </c>
       <c r="I12" t="n">
-        <v>617805.6917372958</v>
+        <v>42278075.43929859</v>
       </c>
       <c r="J12" t="n">
-        <v>480662.0952024652</v>
+        <v>46762727.1599598</v>
       </c>
       <c r="K12" t="n">
-        <v>583486.1809827002</v>
+        <v>48861980.88976202</v>
       </c>
       <c r="L12" t="n">
-        <v>940003.3477887535</v>
+        <v>42833471.3254208</v>
       </c>
       <c r="M12" t="n">
-        <v>608721.0324345727</v>
+        <v>43056936.75492417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3269544.908552142</v>
+        <v>38207055.37518331</v>
       </c>
       <c r="C13" t="n">
-        <v>3581651.456368066</v>
+        <v>38249296.45782317</v>
       </c>
       <c r="D13" t="n">
-        <v>4003533.719979796</v>
+        <v>37091132.70790652</v>
       </c>
       <c r="E13" t="n">
-        <v>4246830.694091363</v>
+        <v>34936838.94290459</v>
       </c>
       <c r="F13" t="n">
-        <v>4638118.760754835</v>
+        <v>38207753.41222385</v>
       </c>
       <c r="G13" t="n">
-        <v>4922853.555528599</v>
+        <v>38249854.88745811</v>
       </c>
       <c r="H13" t="n">
-        <v>5317911.506679031</v>
+        <v>37091579.45161647</v>
       </c>
       <c r="I13" t="n">
-        <v>5534920.659988142</v>
+        <v>34937196.33787416</v>
       </c>
       <c r="J13" t="n">
-        <v>5900446.66756663</v>
+        <v>38208039.32820079</v>
       </c>
       <c r="K13" t="n">
-        <v>6159934.649632503</v>
+        <v>38250083.62024068</v>
       </c>
       <c r="L13" t="n">
-        <v>6530250.729420687</v>
+        <v>37091762.43784335</v>
       </c>
       <c r="M13" t="n">
-        <v>6723012.853784448</v>
+        <v>34937342.72685631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-330922.0200587192</v>
+        <v>944970.9741952565</v>
       </c>
       <c r="C14" t="n">
-        <v>241998.6552433254</v>
+        <v>1067861.799883783</v>
       </c>
       <c r="D14" t="n">
-        <v>198831.0867434242</v>
+        <v>1013613.766235848</v>
       </c>
       <c r="E14" t="n">
-        <v>52017.36293152533</v>
+        <v>886484.1400874716</v>
       </c>
       <c r="F14" t="n">
-        <v>-323649.738399783</v>
+        <v>979729.118178193</v>
       </c>
       <c r="G14" t="n">
-        <v>248737.7126423575</v>
+        <v>1101924.779418238</v>
       </c>
       <c r="H14" t="n">
-        <v>205076.0173934415</v>
+        <v>1046995.484642168</v>
       </c>
       <c r="I14" t="n">
-        <v>57804.39760333669</v>
+        <v>919198.2226189675</v>
       </c>
       <c r="J14" t="n">
-        <v>-318287.0254779583</v>
+        <v>1011788.917582496</v>
       </c>
       <c r="K14" t="n">
-        <v>253707.2162850415</v>
+        <v>1133343.381387423</v>
       </c>
       <c r="L14" t="n">
-        <v>209681.142973471</v>
+        <v>1077785.713153878</v>
       </c>
       <c r="M14" t="n">
-        <v>62071.8623508599</v>
+        <v>949372.6451707138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1060969.790097908</v>
+        <v>4147592.364480224</v>
       </c>
       <c r="C15" t="n">
-        <v>1084904.524255557</v>
+        <v>4430639.236685767</v>
       </c>
       <c r="D15" t="n">
-        <v>1120900.505103654</v>
+        <v>4822824.739795066</v>
       </c>
       <c r="E15" t="n">
-        <v>1353556.960318938</v>
+        <v>4196206.279690847</v>
       </c>
       <c r="F15" t="n">
-        <v>1260513.708994861</v>
+        <v>4390214.832106808</v>
       </c>
       <c r="G15" t="n">
-        <v>1280456.141721903</v>
+        <v>4668409.254702177</v>
       </c>
       <c r="H15" t="n">
-        <v>1312539.695639208</v>
+        <v>5055839.357198657</v>
       </c>
       <c r="I15" t="n">
-        <v>1541362.00036389</v>
+        <v>4424560.604498926</v>
       </c>
       <c r="J15" t="n">
-        <v>1444561.308902367</v>
+        <v>4614002.070176234</v>
       </c>
       <c r="K15" t="n">
-        <v>1460821.477090995</v>
+        <v>4887720.747772572</v>
       </c>
       <c r="L15" t="n">
-        <v>1489296.43802082</v>
+        <v>5270764.620174755</v>
       </c>
       <c r="M15" t="n">
-        <v>1714582.347352547</v>
+        <v>4635187.361987269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1643617.160898296</v>
+        <v>9411288.689121267</v>
       </c>
       <c r="C16" t="n">
-        <v>1770992.231937992</v>
+        <v>10041070.4605931</v>
       </c>
       <c r="D16" t="n">
-        <v>1788367.692070242</v>
+        <v>10130977.83807904</v>
       </c>
       <c r="E16" t="n">
-        <v>1911732.585445618</v>
+        <v>10146289.78474222</v>
       </c>
       <c r="F16" t="n">
-        <v>1898561.434237414</v>
+        <v>9767117.687026486</v>
       </c>
       <c r="G16" t="n">
-        <v>2013936.448928956</v>
+        <v>10389782.30572445</v>
       </c>
       <c r="H16" t="n">
-        <v>2019876.68733543</v>
+        <v>10472714.88494922</v>
       </c>
       <c r="I16" t="n">
-        <v>2132344.607219697</v>
+        <v>10481191.54054454</v>
       </c>
       <c r="J16" t="n">
-        <v>2108789.395770815</v>
+        <v>10095320.8685858</v>
       </c>
       <c r="K16" t="n">
-        <v>2214269.120988635</v>
+        <v>10711420.89530902</v>
       </c>
       <c r="L16" t="n">
-        <v>2210779.834575407</v>
+        <v>10787920.18496627</v>
       </c>
       <c r="M16" t="n">
-        <v>2314262.071063395</v>
+        <v>10790092.22714177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6505497.066355325</v>
+        <v>5652264.454572</v>
       </c>
       <c r="C17" t="n">
-        <v>6265809.493223182</v>
+        <v>5558271.175245372</v>
       </c>
       <c r="D17" t="n">
-        <v>6298275.140336723</v>
+        <v>5844780.913314903</v>
       </c>
       <c r="E17" t="n">
-        <v>6531679.947562439</v>
+        <v>5172377.338103851</v>
       </c>
       <c r="F17" t="n">
-        <v>6720985.924354763</v>
+        <v>5919746.934630637</v>
       </c>
       <c r="G17" t="n">
-        <v>6476988.287787704</v>
+        <v>5820403.096754577</v>
       </c>
       <c r="H17" t="n">
-        <v>6505230.078460907</v>
+        <v>6101669.305627719</v>
       </c>
       <c r="I17" t="n">
-        <v>6734495.511986446</v>
+        <v>5424127.089622557</v>
       </c>
       <c r="J17" t="n">
-        <v>6919744.908051714</v>
+        <v>6166460.835633039</v>
       </c>
       <c r="K17" t="n">
-        <v>6671771.827761271</v>
+        <v>6062181.881363626</v>
       </c>
       <c r="L17" t="n">
-        <v>6696117.688866897</v>
+        <v>6338611.692941597</v>
       </c>
       <c r="M17" t="n">
-        <v>6921565.116591916</v>
+        <v>5656329.824022018</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>277664.3739762547</v>
+        <v>3413971.218431233</v>
       </c>
       <c r="C18" t="n">
-        <v>404552.5493531114</v>
+        <v>3239481.592316104</v>
       </c>
       <c r="D18" t="n">
-        <v>339281.2778339613</v>
+        <v>3151294.84556067</v>
       </c>
       <c r="E18" t="n">
-        <v>821573.8833006725</v>
+        <v>3443977.627750791</v>
       </c>
       <c r="F18" t="n">
-        <v>-59877.39019817996</v>
+        <v>3416933.441760412</v>
       </c>
       <c r="G18" t="n">
-        <v>73762.54388306076</v>
+        <v>3242105.857112013</v>
       </c>
       <c r="H18" t="n">
-        <v>15107.97742326275</v>
+        <v>3153619.70933823</v>
       </c>
       <c r="I18" t="n">
-        <v>503884.9357466643</v>
+        <v>3446037.249017911</v>
       </c>
       <c r="J18" t="n">
-        <v>-371211.6896920273</v>
+        <v>3418758.081898436</v>
       </c>
       <c r="K18" t="n">
-        <v>-231344.2178963881</v>
+        <v>3243722.32499688</v>
       </c>
       <c r="L18" t="n">
-        <v>-283895.8144328962</v>
+        <v>3155051.755235036</v>
       </c>
       <c r="M18" t="n">
-        <v>210862.0377192919</v>
+        <v>3447305.913536247</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69822.32497121127</v>
+        <v>5855367.064192741</v>
       </c>
       <c r="C19" t="n">
-        <v>-31036.36647853393</v>
+        <v>6269784.122883737</v>
       </c>
       <c r="D19" t="n">
-        <v>25339.14521800121</v>
+        <v>6082597.53371956</v>
       </c>
       <c r="E19" t="n">
-        <v>-11893.91187357142</v>
+        <v>4519111.232964383</v>
       </c>
       <c r="F19" t="n">
-        <v>54339.17311129362</v>
+        <v>5916927.689458971</v>
       </c>
       <c r="G19" t="n">
-        <v>-46209.75884115775</v>
+        <v>6330098.439152824</v>
       </c>
       <c r="H19" t="n">
-        <v>10469.31523292249</v>
+        <v>6141690.772803391</v>
       </c>
       <c r="I19" t="n">
-        <v>-26466.25261985071</v>
+        <v>4577008.115851019</v>
       </c>
       <c r="J19" t="n">
-        <v>40058.36996567865</v>
+        <v>5973652.436654391</v>
       </c>
       <c r="K19" t="n">
-        <v>-60204.85695440204</v>
+        <v>6385674.780813301</v>
       </c>
       <c r="L19" t="n">
-        <v>-3245.793728541976</v>
+        <v>6196141.958662735</v>
       </c>
       <c r="M19" t="n">
-        <v>-39906.97395690445</v>
+        <v>4630356.924946837</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1999285.684341495</v>
+        <v>2150643.18883243</v>
       </c>
       <c r="C20" t="n">
-        <v>2425858.323845981</v>
+        <v>1826398.347294722</v>
       </c>
       <c r="D20" t="n">
-        <v>2338539.327168073</v>
+        <v>749306.2476010348</v>
       </c>
       <c r="E20" t="n">
-        <v>2567740.66741835</v>
+        <v>1013515.606603523</v>
       </c>
       <c r="F20" t="n">
-        <v>1999441.215928264</v>
+        <v>2085020.733595538</v>
       </c>
       <c r="G20" t="n">
-        <v>2425982.749115465</v>
+        <v>1766884.332493694</v>
       </c>
       <c r="H20" t="n">
-        <v>2338638.867383716</v>
+        <v>695332.0714603979</v>
       </c>
       <c r="I20" t="n">
-        <v>2567820.299590909</v>
+        <v>964565.5954204401</v>
       </c>
       <c r="J20" t="n">
-        <v>1999504.921666346</v>
+        <v>2040627.214950982</v>
       </c>
       <c r="K20" t="n">
-        <v>2426033.713705959</v>
+        <v>1726623.167071822</v>
       </c>
       <c r="L20" t="n">
-        <v>2338679.639056133</v>
+        <v>658818.6007867667</v>
       </c>
       <c r="M20" t="n">
-        <v>2567852.916928861</v>
+        <v>931450.966803409</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1301852.203807015</v>
+        <v>3765929.114281374</v>
       </c>
       <c r="C21" t="n">
-        <v>1648929.169405406</v>
+        <v>3725416.604488333</v>
       </c>
       <c r="D21" t="n">
-        <v>1385469.399247868</v>
+        <v>4029533.569092278</v>
       </c>
       <c r="E21" t="n">
-        <v>1439333.045470322</v>
+        <v>3455383.646733075</v>
       </c>
       <c r="F21" t="n">
-        <v>1313167.742752922</v>
+        <v>3809914.672552557</v>
       </c>
       <c r="G21" t="n">
-        <v>1660018.358039543</v>
+        <v>3768521.609862565</v>
       </c>
       <c r="H21" t="n">
-        <v>1396336.765367266</v>
+        <v>4071775.649478236</v>
       </c>
       <c r="I21" t="n">
-        <v>1449983.026300252</v>
+        <v>3496780.077143925</v>
       </c>
       <c r="J21" t="n">
-        <v>1323604.686758647</v>
+        <v>3850482.382170619</v>
       </c>
       <c r="K21" t="n">
-        <v>1670246.52670183</v>
+        <v>3808277.188962545</v>
       </c>
       <c r="L21" t="n">
-        <v>1406360.334922377</v>
+        <v>4110735.356211867</v>
       </c>
       <c r="M21" t="n">
-        <v>1459806.089445135</v>
+        <v>3534959.84418878</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>376068.1620785849</v>
+        <v>12375221.76294433</v>
       </c>
       <c r="C22" t="n">
-        <v>241380.5944689785</v>
+        <v>12083345.69916097</v>
       </c>
       <c r="D22" t="n">
-        <v>508495.1184975097</v>
+        <v>12178169.63400084</v>
       </c>
       <c r="E22" t="n">
-        <v>550561.1820012948</v>
+        <v>11470417.67360777</v>
       </c>
       <c r="F22" t="n">
-        <v>389181.3892987423</v>
+        <v>12752595.41713588</v>
       </c>
       <c r="G22" t="n">
-        <v>253864.403667132</v>
+        <v>12453170.95320692</v>
       </c>
       <c r="H22" t="n">
-        <v>520379.7209282782</v>
+        <v>12540597.47444762</v>
       </c>
       <c r="I22" t="n">
-        <v>561875.3388179753</v>
+        <v>11825596.06689997</v>
       </c>
       <c r="J22" t="n">
-        <v>399952.4811563065</v>
+        <v>13100669.37002568</v>
       </c>
       <c r="K22" t="n">
-        <v>264118.4969843682</v>
+        <v>12794282.57195525</v>
       </c>
       <c r="L22" t="n">
-        <v>530141.6309694359</v>
+        <v>12874886.02284108</v>
       </c>
       <c r="M22" t="n">
-        <v>571168.6897465722</v>
+        <v>12153198.02310731</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-27086.23695378871</v>
+        <v>6640236.964176485</v>
       </c>
       <c r="C23" t="n">
-        <v>-2825.638685503852</v>
+        <v>6815238.95801808</v>
       </c>
       <c r="D23" t="n">
-        <v>-14275.08756332669</v>
+        <v>8545747.266764184</v>
       </c>
       <c r="E23" t="n">
-        <v>37152.50270364567</v>
+        <v>6365787.366453931</v>
       </c>
       <c r="F23" t="n">
-        <v>-26638.61159883463</v>
+        <v>6624119.264843645</v>
       </c>
       <c r="G23" t="n">
-        <v>-2408.400327460744</v>
+        <v>6799446.698318808</v>
       </c>
       <c r="H23" t="n">
-        <v>-13886.17338432455</v>
+        <v>8530273.875602141</v>
       </c>
       <c r="I23" t="n">
-        <v>37515.01548731759</v>
+        <v>6350626.405412704</v>
       </c>
       <c r="J23" t="n">
-        <v>-26300.70795473827</v>
+        <v>6609264.42550775</v>
       </c>
       <c r="K23" t="n">
-        <v>-2093.435234265761</v>
+        <v>6784891.799648785</v>
       </c>
       <c r="L23" t="n">
-        <v>-13592.58966108114</v>
+        <v>8516012.861362642</v>
       </c>
       <c r="M23" t="n">
-        <v>37788.66931250546</v>
+        <v>6336653.341652526</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11832349.50362772</v>
+        <v>9679861.244816286</v>
       </c>
       <c r="C24" t="n">
-        <v>12675104.83021322</v>
+        <v>10506265.17397628</v>
       </c>
       <c r="D24" t="n">
-        <v>13726473.14585902</v>
+        <v>10864557.13582745</v>
       </c>
       <c r="E24" t="n">
-        <v>13455845.18155514</v>
+        <v>8992904.732943544</v>
       </c>
       <c r="F24" t="n">
-        <v>12013714.69303245</v>
+        <v>10039921.57605072</v>
       </c>
       <c r="G24" t="n">
-        <v>12852842.51743667</v>
+        <v>10859123.9015093</v>
       </c>
       <c r="H24" t="n">
-        <v>13900655.88491289</v>
+        <v>11210358.29967505</v>
       </c>
       <c r="I24" t="n">
-        <v>13626544.07529154</v>
+        <v>9331789.492162568</v>
       </c>
       <c r="J24" t="n">
-        <v>12180999.42216867</v>
+        <v>10372028.26636119</v>
       </c>
       <c r="K24" t="n">
-        <v>13016781.36899943</v>
+        <v>11184588.09176428</v>
       </c>
       <c r="L24" t="n">
-        <v>14061315.78011366</v>
+        <v>11529312.84720104</v>
       </c>
       <c r="M24" t="n">
-        <v>13783990.59684438</v>
+        <v>9644364.59699302</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2381141.401450825</v>
+        <v>4957175.151902364</v>
       </c>
       <c r="C25" t="n">
-        <v>3149465.543530883</v>
+        <v>5584946.079017338</v>
       </c>
       <c r="D25" t="n">
-        <v>2910793.659282555</v>
+        <v>5479348.59945685</v>
       </c>
       <c r="E25" t="n">
-        <v>2888927.165641876</v>
+        <v>4507774.58797451</v>
       </c>
       <c r="F25" t="n">
-        <v>2382291.103740959</v>
+        <v>4956935.310305925</v>
       </c>
       <c r="G25" t="n">
-        <v>3150460.888802659</v>
+        <v>5584754.205740188</v>
       </c>
       <c r="H25" t="n">
-        <v>2911655.371239251</v>
+        <v>5479195.100835131</v>
       </c>
       <c r="I25" t="n">
-        <v>2889673.185658615</v>
+        <v>4507651.789077135</v>
       </c>
       <c r="J25" t="n">
-        <v>2382936.964415226</v>
+        <v>4956837.071188025</v>
       </c>
       <c r="K25" t="n">
-        <v>3151020.037352571</v>
+        <v>5584675.614445868</v>
       </c>
       <c r="L25" t="n">
-        <v>2912139.449482942</v>
+        <v>5479132.227799674</v>
       </c>
       <c r="M25" t="n">
-        <v>2890092.272404082</v>
+        <v>4507601.49064877</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11829196.69221742</v>
+        <v>8328552.635961777</v>
       </c>
       <c r="C26" t="n">
-        <v>12376656.93049748</v>
+        <v>8036320.04677897</v>
       </c>
       <c r="D26" t="n">
-        <v>12827226.77025265</v>
+        <v>8833633.144431628</v>
       </c>
       <c r="E26" t="n">
-        <v>13454699.94882422</v>
+        <v>7928308.878123355</v>
       </c>
       <c r="F26" t="n">
-        <v>12388291.96693772</v>
+        <v>8400476.068452204</v>
       </c>
       <c r="G26" t="n">
-        <v>12924558.41458045</v>
+        <v>8104011.909117385</v>
       </c>
       <c r="H26" t="n">
-        <v>13364158.57746655</v>
+        <v>8897342.398400461</v>
       </c>
       <c r="I26" t="n">
-        <v>13980881.70589777</v>
+        <v>7988269.83799433</v>
       </c>
       <c r="J26" t="n">
-        <v>12903938.90339628</v>
+        <v>8456909.262763465</v>
       </c>
       <c r="K26" t="n">
-        <v>13429881.45078358</v>
+        <v>8157124.891748508</v>
       </c>
       <c r="L26" t="n">
-        <v>13859364.4108829</v>
+        <v>8947330.511928372</v>
       </c>
       <c r="M26" t="n">
-        <v>14466172.89565267</v>
+        <v>8035316.932137656</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15177398.97029037</v>
+        <v>3151693.428958688</v>
       </c>
       <c r="C27" t="n">
-        <v>16858425.59241875</v>
+        <v>3732772.615668494</v>
       </c>
       <c r="D27" t="n">
-        <v>16750514.64581085</v>
+        <v>3728795.244734661</v>
       </c>
       <c r="E27" t="n">
-        <v>18946173.4830597</v>
+        <v>2769190.254561995</v>
       </c>
       <c r="F27" t="n">
-        <v>15939146.17170553</v>
+        <v>3173696.69815003</v>
       </c>
       <c r="G27" t="n">
-        <v>17604936.24926902</v>
+        <v>3754322.918383977</v>
       </c>
       <c r="H27" t="n">
-        <v>17482093.52100161</v>
+        <v>3749901.905889892</v>
       </c>
       <c r="I27" t="n">
-        <v>19663119.24359788</v>
+        <v>2789862.407106824</v>
       </c>
       <c r="J27" t="n">
-        <v>16641751.5106304</v>
+        <v>3193943.287020424</v>
       </c>
       <c r="K27" t="n">
-        <v>18293488.00514405</v>
+        <v>3774152.704372535</v>
       </c>
       <c r="L27" t="n">
-        <v>18156872.79501634</v>
+        <v>3769323.469436678</v>
       </c>
       <c r="M27" t="n">
-        <v>20324401.51432741</v>
+        <v>2808884.152012164</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19565499.83360685</v>
+        <v>11015760.85861057</v>
       </c>
       <c r="C28" t="n">
-        <v>19522103.89161751</v>
+        <v>11892278.54680103</v>
       </c>
       <c r="D28" t="n">
-        <v>20689371.68887405</v>
+        <v>12380654.27424847</v>
       </c>
       <c r="E28" t="n">
-        <v>20822324.28829207</v>
+        <v>9110125.340553917</v>
       </c>
       <c r="F28" t="n">
-        <v>20178458.75613453</v>
+        <v>11087230.54784285</v>
       </c>
       <c r="G28" t="n">
-        <v>20122803.63569464</v>
+        <v>11958930.01910909</v>
       </c>
       <c r="H28" t="n">
-        <v>21278057.43806963</v>
+        <v>12442812.35564708</v>
       </c>
       <c r="I28" t="n">
-        <v>21399236.32250375</v>
+        <v>9168092.958512872</v>
       </c>
       <c r="J28" t="n">
-        <v>20743832.54966197</v>
+        <v>11141290.20760434</v>
       </c>
       <c r="K28" t="n">
-        <v>20676869.95335153</v>
+        <v>12009345.18047724</v>
       </c>
       <c r="L28" t="n">
-        <v>21821042.42937338</v>
+        <v>12489828.71695956</v>
       </c>
       <c r="M28" t="n">
-        <v>21931361.61398142</v>
+        <v>9211939.654052017</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23014891.96023016</v>
+        <v>1866702.338994946</v>
       </c>
       <c r="C29" t="n">
-        <v>24862016.84938602</v>
+        <v>1971476.317627257</v>
       </c>
       <c r="D29" t="n">
-        <v>25475468.43436525</v>
+        <v>1902361.589088197</v>
       </c>
       <c r="E29" t="n">
-        <v>26119182.39592815</v>
+        <v>1888455.658550642</v>
       </c>
       <c r="F29" t="n">
-        <v>26728171.1253459</v>
+        <v>1943838.103132263</v>
       </c>
       <c r="G29" t="n">
-        <v>28501018.10237012</v>
+        <v>2047068.762227926</v>
       </c>
       <c r="H29" t="n">
-        <v>29041677.58007785</v>
+        <v>1976441.592632764</v>
       </c>
       <c r="I29" t="n">
-        <v>29614055.51819905</v>
+        <v>1961053.48170815</v>
       </c>
       <c r="J29" t="n">
-        <v>30153135.18149379</v>
+        <v>2014983.401121321</v>
       </c>
       <c r="K29" t="n">
-        <v>31857471.50582954</v>
+        <v>2116790.596930465</v>
       </c>
       <c r="L29" t="n">
-        <v>32330990.77137163</v>
+        <v>2044768.444465415</v>
       </c>
       <c r="M29" t="n">
-        <v>32837571.52448944</v>
+        <v>2028013.261256105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>43802633.64093555</v>
+        <v>646253.6923567578</v>
       </c>
       <c r="C30" t="n">
-        <v>47301100.66436787</v>
+        <v>686558.2831601491</v>
       </c>
       <c r="D30" t="n">
-        <v>49407810.81328132</v>
+        <v>790260.7703566431</v>
       </c>
       <c r="E30" t="n">
-        <v>43385985.20741944</v>
+        <v>714637.088209682</v>
       </c>
       <c r="F30" t="n">
-        <v>44690640.12350178</v>
+        <v>687263.3436557499</v>
       </c>
       <c r="G30" t="n">
-        <v>48171328.79140605</v>
+        <v>726747.4121763012</v>
       </c>
       <c r="H30" t="n">
-        <v>50260616.51679362</v>
+        <v>829645.7941233929</v>
       </c>
       <c r="I30" t="n">
-        <v>44221717.29346267</v>
+        <v>753234.0952879897</v>
       </c>
       <c r="J30" t="n">
-        <v>45509640.41485254</v>
+        <v>725088.1007061853</v>
       </c>
       <c r="K30" t="n">
-        <v>48973932.26736969</v>
+        <v>763815.370399636</v>
       </c>
       <c r="L30" t="n">
-        <v>51047151.45021409</v>
+        <v>865972.095572329</v>
       </c>
       <c r="M30" t="n">
-        <v>44992505.3849894</v>
+        <v>788833.5790526032</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35590980.59472439</v>
+        <v>878100.8214544045</v>
       </c>
       <c r="C31" t="n">
-        <v>38190072.63729575</v>
+        <v>901517.3756929361</v>
       </c>
       <c r="D31" t="n">
-        <v>38235808.12726695</v>
+        <v>921099.6434354238</v>
       </c>
       <c r="E31" t="n">
-        <v>37080439.72769523</v>
+        <v>960139.5680188871</v>
       </c>
       <c r="F31" t="n">
-        <v>35593332.32034554</v>
+        <v>907084.0984288665</v>
       </c>
       <c r="G31" t="n">
-        <v>38191954.01779289</v>
+        <v>929920.8373790361</v>
       </c>
       <c r="H31" t="n">
-        <v>38237313.23166483</v>
+        <v>948934.8891346802</v>
       </c>
       <c r="I31" t="n">
-        <v>37081643.81121367</v>
+        <v>987417.9649868574</v>
       </c>
       <c r="J31" t="n">
-        <v>35594295.5871604</v>
+        <v>933816.7865172655</v>
       </c>
       <c r="K31" t="n">
-        <v>38192724.63124486</v>
+        <v>956118.7335849877</v>
       </c>
       <c r="L31" t="n">
-        <v>38237929.72242647</v>
+        <v>974608.6920589604</v>
       </c>
       <c r="M31" t="n">
-        <v>37082137.00382305</v>
+        <v>1012578.15920295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1489218.974599067</v>
+        <v>1877328.111404842</v>
       </c>
       <c r="C32" t="n">
-        <v>1610357.378458706</v>
+        <v>1876081.989414182</v>
       </c>
       <c r="D32" t="n">
-        <v>1816292.965037537</v>
+        <v>1963333.684402012</v>
       </c>
       <c r="E32" t="n">
-        <v>1840852.512361934</v>
+        <v>1821338.393027557</v>
       </c>
       <c r="F32" t="n">
-        <v>1889751.764628248</v>
+        <v>1933369.101198939</v>
       </c>
       <c r="G32" t="n">
-        <v>2002878.486402685</v>
+        <v>1929948.509442983</v>
       </c>
       <c r="H32" t="n">
-        <v>2200962.64506634</v>
+        <v>2015110.10717174</v>
       </c>
       <c r="I32" t="n">
-        <v>2217827.813151567</v>
+        <v>1871105.817271712</v>
       </c>
       <c r="J32" t="n">
-        <v>2259186.593478793</v>
+        <v>1981205.478905316</v>
       </c>
       <c r="K32" t="n">
-        <v>2364923.672073865</v>
+        <v>1975928.767951858</v>
       </c>
       <c r="L32" t="n">
-        <v>2555765.999356213</v>
+        <v>2059306.266536481</v>
       </c>
       <c r="M32" t="n">
-        <v>2565534.191243496</v>
+        <v>1913587.103065627</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4219102.460290867</v>
+        <v>2785807.783411424</v>
       </c>
       <c r="C33" t="n">
-        <v>4428147.929757356</v>
+        <v>2829410.685930271</v>
       </c>
       <c r="D33" t="n">
-        <v>4792298.174306914</v>
+        <v>2960303.431883083</v>
       </c>
       <c r="E33" t="n">
-        <v>5260987.385075438</v>
+        <v>2870415.298196022</v>
       </c>
       <c r="F33" t="n">
-        <v>4757925.904979369</v>
+        <v>2912608.153398169</v>
       </c>
       <c r="G33" t="n">
-        <v>4956194.903974009</v>
+        <v>2953674.471401958</v>
       </c>
       <c r="H33" t="n">
-        <v>5309784.207492718</v>
+        <v>3082081.376074947</v>
       </c>
       <c r="I33" t="n">
-        <v>5768123.696081939</v>
+        <v>2989757.12924764</v>
       </c>
       <c r="J33" t="n">
-        <v>5254919.488280465</v>
+        <v>3029562.604659998</v>
       </c>
       <c r="K33" t="n">
-        <v>5443248.614153514</v>
+        <v>3068289.301335641</v>
       </c>
       <c r="L33" t="n">
-        <v>5787096.842042174</v>
+        <v>3194403.387755527</v>
       </c>
       <c r="M33" t="n">
-        <v>6235890.076542477</v>
+        <v>3099832.189475643</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12157362.84888912</v>
+        <v>2901152.465525195</v>
       </c>
       <c r="C34" t="n">
-        <v>11554745.90018395</v>
+        <v>2747098.557126531</v>
       </c>
       <c r="D34" t="n">
-        <v>12152482.12758675</v>
+        <v>2966660.494417681</v>
       </c>
       <c r="E34" t="n">
-        <v>12210699.94062744</v>
+        <v>2831535.74882482</v>
       </c>
       <c r="F34" t="n">
-        <v>12613448.92192975</v>
+        <v>2960562.603916771</v>
       </c>
       <c r="G34" t="n">
-        <v>12001707.35897627</v>
+        <v>2805320.299532649</v>
       </c>
       <c r="H34" t="n">
-        <v>12590501.52228982</v>
+        <v>3023717.612623031</v>
       </c>
       <c r="I34" t="n">
-        <v>12639956.16923929</v>
+        <v>2887451.539101085</v>
       </c>
       <c r="J34" t="n">
-        <v>13034117.30335378</v>
+        <v>3015359.896534437</v>
       </c>
       <c r="K34" t="n">
-        <v>12413959.7046258</v>
+        <v>2859021.468082541</v>
       </c>
       <c r="L34" t="n">
-        <v>12994506.20626019</v>
+        <v>3076344.583151392</v>
       </c>
       <c r="M34" t="n">
-        <v>13035878.197076</v>
+        <v>2939025.799061924</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5735002.50491708</v>
+        <v>1294275.303040662</v>
       </c>
       <c r="C35" t="n">
-        <v>6270762.954797513</v>
+        <v>1415224.563378265</v>
       </c>
       <c r="D35" t="n">
-        <v>6169636.373586581</v>
+        <v>1364832.151607715</v>
       </c>
       <c r="E35" t="n">
-        <v>6448930.822235597</v>
+        <v>1307102.780774723</v>
       </c>
       <c r="F35" t="n">
-        <v>5993671.850050558</v>
+        <v>1360533.823209261</v>
       </c>
       <c r="G35" t="n">
-        <v>6524258.778362314</v>
+        <v>1480079.051939891</v>
       </c>
       <c r="H35" t="n">
-        <v>6418062.148707469</v>
+        <v>1428312.360279556</v>
       </c>
       <c r="I35" t="n">
-        <v>6692387.952520972</v>
+        <v>1369237.830828989</v>
       </c>
       <c r="J35" t="n">
-        <v>6232259.710983858</v>
+        <v>1421352.218832444</v>
       </c>
       <c r="K35" t="n">
-        <v>6758074.757865574</v>
+        <v>1539608.693308933</v>
       </c>
       <c r="L35" t="n">
-        <v>6647201.686893582</v>
+        <v>1486580.55636094</v>
       </c>
       <c r="M35" t="n">
-        <v>6916944.580650887</v>
+        <v>1426271.311906605</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3541814.871998454</v>
+        <v>1100279.070782037</v>
       </c>
       <c r="C36" t="n">
-        <v>3405419.648979326</v>
+        <v>899258.54553075</v>
       </c>
       <c r="D36" t="n">
-        <v>3240875.815674815</v>
+        <v>810280.1784038879</v>
       </c>
       <c r="E36" t="n">
-        <v>3160621.91126573</v>
+        <v>823839.9088855006</v>
       </c>
       <c r="F36" t="n">
-        <v>3547952.248277512</v>
+        <v>1102622.591348696</v>
       </c>
       <c r="G36" t="n">
-        <v>3410956.211065327</v>
+        <v>901402.8363073288</v>
       </c>
       <c r="H36" t="n">
-        <v>3245870.379856376</v>
+        <v>812242.1765190037</v>
       </c>
       <c r="I36" t="n">
-        <v>3165127.536051697</v>
+        <v>825635.1115911056</v>
       </c>
       <c r="J36" t="n">
-        <v>3552016.798050817</v>
+        <v>1104265.178428358</v>
       </c>
       <c r="K36" t="n">
-        <v>3414622.86455834</v>
+        <v>902905.7820782157</v>
       </c>
       <c r="L36" t="n">
-        <v>3249178.088849417</v>
+        <v>813617.3523122355</v>
       </c>
       <c r="M36" t="n">
-        <v>3168111.439167574</v>
+        <v>826893.3795199442</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3985499.640803301</v>
+        <v>3855071.117911905</v>
       </c>
       <c r="C37" t="n">
-        <v>5528211.639109849</v>
+        <v>4205940.724473416</v>
       </c>
       <c r="D37" t="n">
-        <v>5923819.446373241</v>
+        <v>3819519.657548506</v>
       </c>
       <c r="E37" t="n">
-        <v>5721087.263265166</v>
+        <v>3332687.437220075</v>
       </c>
       <c r="F37" t="n">
-        <v>3987650.954482826</v>
+        <v>3854970.272825158</v>
       </c>
       <c r="G37" t="n">
-        <v>5530119.427267889</v>
+        <v>4205860.048404017</v>
       </c>
       <c r="H37" t="n">
-        <v>5925511.275738059</v>
+        <v>3819455.116692987</v>
       </c>
       <c r="I37" t="n">
-        <v>5722587.580052226</v>
+        <v>3332635.80453566</v>
       </c>
       <c r="J37" t="n">
-        <v>3988981.437632216</v>
+        <v>3854928.966677626</v>
       </c>
       <c r="K37" t="n">
-        <v>5531299.301695794</v>
+        <v>4205827.003485993</v>
       </c>
       <c r="L37" t="n">
-        <v>5926557.590128635</v>
+        <v>3819428.680758567</v>
       </c>
       <c r="M37" t="n">
-        <v>5723515.453203837</v>
+        <v>3332614.655788124</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1564674.796828093</v>
+        <v>4297926.217041851</v>
       </c>
       <c r="C38" t="n">
-        <v>2527728.296778305</v>
+        <v>3902933.338131785</v>
       </c>
       <c r="D38" t="n">
-        <v>2229080.858941867</v>
+        <v>4228973.453826794</v>
       </c>
       <c r="E38" t="n">
-        <v>1173549.140871342</v>
+        <v>4140053.559637779</v>
       </c>
       <c r="F38" t="n">
-        <v>1576503.650710047</v>
+        <v>4419693.123629115</v>
       </c>
       <c r="G38" t="n">
-        <v>2538649.630473626</v>
+        <v>4022264.571319889</v>
       </c>
       <c r="H38" t="n">
-        <v>2239164.298206133</v>
+        <v>4345917.733789993</v>
       </c>
       <c r="I38" t="n">
-        <v>1182858.969710259</v>
+        <v>4254658.632012698</v>
       </c>
       <c r="J38" t="n">
-        <v>1585099.22120325</v>
+        <v>4532005.779008186</v>
       </c>
       <c r="K38" t="n">
-        <v>2546585.741156433</v>
+        <v>4132330.664354867</v>
       </c>
       <c r="L38" t="n">
-        <v>2246491.54342151</v>
+        <v>4453782.20191334</v>
       </c>
       <c r="M38" t="n">
-        <v>1189624.062158197</v>
+        <v>4360365.5137845</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4147935.621096396</v>
+        <v>4852361.054185224</v>
       </c>
       <c r="C39" t="n">
-        <v>4401340.286252913</v>
+        <v>4506431.325946436</v>
       </c>
       <c r="D39" t="n">
-        <v>4351715.183213812</v>
+        <v>4604538.852344469</v>
       </c>
       <c r="E39" t="n">
-        <v>4646759.139432983</v>
+        <v>4353221.550876849</v>
       </c>
       <c r="F39" t="n">
-        <v>4212734.905124665</v>
+        <v>4852240.911356845</v>
       </c>
       <c r="G39" t="n">
-        <v>4464843.52353146</v>
+        <v>4506335.201181408</v>
       </c>
       <c r="H39" t="n">
-        <v>4413948.295899072</v>
+        <v>4604461.944129668</v>
       </c>
       <c r="I39" t="n">
-        <v>4707747.531213831</v>
+        <v>4353160.017582051</v>
       </c>
       <c r="J39" t="n">
-        <v>4272503.471592261</v>
+        <v>4852191.679342053</v>
       </c>
       <c r="K39" t="n">
-        <v>4523416.662341674</v>
+        <v>4506295.811265941</v>
       </c>
       <c r="L39" t="n">
-        <v>4471349.916731666</v>
+        <v>4604430.428754011</v>
       </c>
       <c r="M39" t="n">
-        <v>4764001.065532438</v>
+        <v>4353134.802526599</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11433689.86851011</v>
+        <v>5045023.719341876</v>
       </c>
       <c r="C40" t="n">
-        <v>12484402.95282738</v>
+        <v>4976361.045931992</v>
       </c>
       <c r="D40" t="n">
-        <v>12190344.22832659</v>
+        <v>5217118.854255654</v>
       </c>
       <c r="E40" t="n">
-        <v>12283029.083917</v>
+        <v>4768505.48803258</v>
       </c>
       <c r="F40" t="n">
-        <v>11830639.50615528</v>
+        <v>5143199.956082137</v>
       </c>
       <c r="G40" t="n">
-        <v>12873412.29479154</v>
+        <v>5071670.119668745</v>
       </c>
       <c r="H40" t="n">
-        <v>12571572.10658619</v>
+        <v>5309644.498323578</v>
       </c>
       <c r="I40" t="n">
-        <v>12656631.15328763</v>
+        <v>4858328.990397424</v>
       </c>
       <c r="J40" t="n">
-        <v>12196768.30784531</v>
+        <v>5230400.230755869</v>
       </c>
       <c r="K40" t="n">
-        <v>13232217.31868446</v>
+        <v>5156323.77603909</v>
       </c>
       <c r="L40" t="n">
-        <v>12923199.85227716</v>
+        <v>5391825.90845883</v>
       </c>
       <c r="M40" t="n">
-        <v>13001225.18989904</v>
+        <v>4938110.354385669</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6553272.286032883</v>
+        <v>2998702.80931277</v>
       </c>
       <c r="C41" t="n">
-        <v>6801609.323989493</v>
+        <v>2999994.248746089</v>
       </c>
       <c r="D41" t="n">
-        <v>6973342.862103442</v>
+        <v>3269017.239933368</v>
       </c>
       <c r="E41" t="n">
-        <v>8700648.970082199</v>
+        <v>2937726.017887964</v>
       </c>
       <c r="F41" t="n">
-        <v>6553691.479962373</v>
+        <v>3074069.145470175</v>
       </c>
       <c r="G41" t="n">
-        <v>6802019.588918434</v>
+        <v>3073719.974406788</v>
       </c>
       <c r="H41" t="n">
-        <v>6973744.388223165</v>
+        <v>3341138.068692304</v>
       </c>
       <c r="I41" t="n">
-        <v>8701041.94353288</v>
+        <v>3008276.885909445</v>
       </c>
       <c r="J41" t="n">
-        <v>6554076.082919329</v>
+        <v>3143084.228411351</v>
       </c>
       <c r="K41" t="n">
-        <v>6802395.999676573</v>
+        <v>3141232.703972741</v>
       </c>
       <c r="L41" t="n">
-        <v>6974112.781279639</v>
+        <v>3407181.148830749</v>
       </c>
       <c r="M41" t="n">
-        <v>8701402.489667986</v>
+        <v>3072882.3086529</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8648316.738591472</v>
+        <v>3907708.874174421</v>
       </c>
       <c r="C42" t="n">
-        <v>9600717.698881993</v>
+        <v>3938511.456662324</v>
       </c>
       <c r="D42" t="n">
-        <v>10428697.55689407</v>
+        <v>4016483.545851692</v>
       </c>
       <c r="E42" t="n">
-        <v>10788534.02375374</v>
+        <v>3757168.646997071</v>
       </c>
       <c r="F42" t="n">
-        <v>9007567.22753251</v>
+        <v>3961143.678406661</v>
       </c>
       <c r="G42" t="n">
-        <v>9952781.957748827</v>
+        <v>3989938.404862594</v>
       </c>
       <c r="H42" t="n">
-        <v>10773719.33469824</v>
+        <v>4065978.084836034</v>
       </c>
       <c r="I42" t="n">
-        <v>11126654.19403826</v>
+        <v>3804803.388606328</v>
       </c>
       <c r="J42" t="n">
-        <v>9338923.845891027</v>
+        <v>4006988.506032968</v>
       </c>
       <c r="K42" t="n">
-        <v>10277510.31819417</v>
+        <v>4034060.575973046</v>
       </c>
       <c r="L42" t="n">
-        <v>11091952.02490341</v>
+        <v>4108442.329643945</v>
       </c>
       <c r="M42" t="n">
-        <v>11438521.14947244</v>
+        <v>3845672.005034839</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4631587.54991193</v>
+        <v>2695541.12524007</v>
       </c>
       <c r="C43" t="n">
-        <v>4928453.653726518</v>
+        <v>2928531.047748589</v>
       </c>
       <c r="D43" t="n">
-        <v>5561982.316105871</v>
+        <v>2946514.962482742</v>
       </c>
       <c r="E43" t="n">
-        <v>5460990.984862665</v>
+        <v>2594563.399144534</v>
       </c>
       <c r="F43" t="n">
-        <v>4631537.809987593</v>
+        <v>2695642.225787978</v>
       </c>
       <c r="G43" t="n">
-        <v>4928413.861787049</v>
+        <v>2928611.928515964</v>
       </c>
       <c r="H43" t="n">
-        <v>5561950.482554295</v>
+        <v>2946579.667359882</v>
       </c>
       <c r="I43" t="n">
-        <v>5460965.518021405</v>
+        <v>2594615.16325684</v>
       </c>
       <c r="J43" t="n">
-        <v>4631517.436514585</v>
+        <v>2695683.637246298</v>
       </c>
       <c r="K43" t="n">
-        <v>4928397.563008643</v>
+        <v>2928645.0578174</v>
       </c>
       <c r="L43" t="n">
-        <v>5561937.44353157</v>
+        <v>2946606.170908856</v>
       </c>
       <c r="M43" t="n">
-        <v>5460955.086803225</v>
+        <v>2594636.366182279</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13532909.11620981</v>
+        <v>5457377.239642273</v>
       </c>
       <c r="C44" t="n">
-        <v>13946986.53063896</v>
+        <v>5853615.477731108</v>
       </c>
       <c r="D44" t="n">
-        <v>13636958.95608102</v>
+        <v>5703858.453879122</v>
       </c>
       <c r="E44" t="n">
-        <v>14411618.5670583</v>
+        <v>5397271.483526557</v>
       </c>
       <c r="F44" t="n">
-        <v>13962537.35344233</v>
+        <v>5529331.653638509</v>
       </c>
       <c r="G44" t="n">
-        <v>14368015.82899364</v>
+        <v>5924128.871196815</v>
       </c>
       <c r="H44" t="n">
-        <v>14049561.42191264</v>
+        <v>5772959.685921811</v>
       </c>
       <c r="I44" t="n">
-        <v>14815962.86204113</v>
+        <v>5464988.835296611</v>
       </c>
       <c r="J44" t="n">
-        <v>14358788.7635148</v>
+        <v>5595692.839903848</v>
       </c>
       <c r="K44" t="n">
-        <v>14756336.33192318</v>
+        <v>5989161.051685751</v>
       </c>
       <c r="L44" t="n">
-        <v>14430109.75350816</v>
+        <v>5836689.47643875</v>
       </c>
       <c r="M44" t="n">
-        <v>15188894.58104029</v>
+        <v>5527442.318615134</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4171418.920360668</v>
+        <v>2736078.078745038</v>
       </c>
       <c r="C45" t="n">
-        <v>4364335.13060178</v>
+        <v>2863132.667567865</v>
       </c>
       <c r="D45" t="n">
-        <v>4930698.259012659</v>
+        <v>3027098.160009033</v>
       </c>
       <c r="E45" t="n">
-        <v>4911994.628678746</v>
+        <v>2866646.012907416</v>
       </c>
       <c r="F45" t="n">
-        <v>4184333.145613539</v>
+        <v>2774401.790450402</v>
       </c>
       <c r="G45" t="n">
-        <v>4376990.836017215</v>
+        <v>2900689.546221526</v>
       </c>
       <c r="H45" t="n">
-        <v>4943100.619698342</v>
+        <v>3063903.549451736</v>
       </c>
       <c r="I45" t="n">
-        <v>4924148.716145903</v>
+        <v>2902714.949959431</v>
       </c>
       <c r="J45" t="n">
-        <v>4196243.929850755</v>
+        <v>2809749.011054806</v>
       </c>
       <c r="K45" t="n">
-        <v>4388663.187522738</v>
+        <v>2935329.491464565</v>
       </c>
       <c r="L45" t="n">
-        <v>4954539.3114717</v>
+        <v>3097850.37146272</v>
       </c>
       <c r="M45" t="n">
-        <v>4935358.425639655</v>
+        <v>2935982.517692583</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9582032.297618037</v>
+        <v>2201827.914861984</v>
       </c>
       <c r="C46" t="n">
-        <v>11195095.56717124</v>
+        <v>2152675.478051215</v>
       </c>
       <c r="D46" t="n">
-        <v>12086478.06191205</v>
+        <v>2053670.487584281</v>
       </c>
       <c r="E46" t="n">
-        <v>12587169.91632914</v>
+        <v>2215012.835536145</v>
       </c>
       <c r="F46" t="n">
-        <v>9693286.271772347</v>
+        <v>2201797.926117248</v>
       </c>
       <c r="G46" t="n">
-        <v>11299970.49180269</v>
+        <v>2152651.438689147</v>
       </c>
       <c r="H46" t="n">
-        <v>12185339.69719346</v>
+        <v>2053651.217323597</v>
       </c>
       <c r="I46" t="n">
-        <v>12680363.05057798</v>
+        <v>2214997.388248244</v>
       </c>
       <c r="J46" t="n">
-        <v>9781135.923929127</v>
+        <v>2201785.543373319</v>
       </c>
       <c r="K46" t="n">
-        <v>11382783.04496202</v>
+        <v>2152641.512522936</v>
       </c>
       <c r="L46" t="n">
-        <v>12263403.96714104</v>
+        <v>2053643.260381565</v>
       </c>
       <c r="M46" t="n">
-        <v>12753951.29306005</v>
+        <v>2214991.009861547</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2261735.593331894</v>
+        <v>1848688.660930844</v>
       </c>
       <c r="C47" t="n">
-        <v>2294787.500151527</v>
+        <v>1858802.113039293</v>
       </c>
       <c r="D47" t="n">
-        <v>2393800.498836038</v>
+        <v>1914817.768808947</v>
       </c>
       <c r="E47" t="n">
-        <v>2318965.175910939</v>
+        <v>1936016.356390514</v>
       </c>
       <c r="F47" t="n">
-        <v>2347102.089147016</v>
+        <v>1921246.676517033</v>
       </c>
       <c r="G47" t="n">
-        <v>2378445.80074675</v>
+        <v>1929907.936119927</v>
       </c>
       <c r="H47" t="n">
-        <v>2475784.785430603</v>
+        <v>1984500.463892698</v>
       </c>
       <c r="I47" t="n">
-        <v>2399308.94575323</v>
+        <v>2004304.406282415</v>
       </c>
       <c r="J47" t="n">
-        <v>2425838.16920091</v>
+        <v>1988167.993960826</v>
       </c>
       <c r="K47" t="n">
-        <v>2455606.361104101</v>
+        <v>1995489.8752074</v>
       </c>
       <c r="L47" t="n">
-        <v>2551401.352455341</v>
+        <v>2048769.831244669</v>
       </c>
       <c r="M47" t="n">
-        <v>2473412.414962444</v>
+        <v>2067287.472005941</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>698743.3227681512</v>
+        <v>5015643.748775725</v>
       </c>
       <c r="C48" t="n">
-        <v>641557.2779071509</v>
+        <v>4865991.490736051</v>
       </c>
       <c r="D48" t="n">
-        <v>681958.4636357955</v>
+        <v>5011208.720066156</v>
       </c>
       <c r="E48" t="n">
-        <v>785755.5530925625</v>
+        <v>4907962.074341284</v>
       </c>
       <c r="F48" t="n">
-        <v>740154.3334078385</v>
+        <v>5180755.624739901</v>
       </c>
       <c r="G48" t="n">
-        <v>682139.9718750698</v>
+        <v>5027800.310232864</v>
       </c>
       <c r="H48" t="n">
-        <v>721729.4091947855</v>
+        <v>5169780.560607977</v>
       </c>
       <c r="I48" t="n">
-        <v>824730.9871016138</v>
+        <v>5063361.691562494</v>
       </c>
       <c r="J48" t="n">
-        <v>778350.1679509408</v>
+        <v>5333046.47884101</v>
       </c>
       <c r="K48" t="n">
-        <v>719571.8007574689</v>
+        <v>5177044.591895608</v>
       </c>
       <c r="L48" t="n">
-        <v>758412.5143092995</v>
+        <v>5316039.216391999</v>
       </c>
       <c r="M48" t="n">
-        <v>860680.3446676083</v>
+        <v>5206694.44879395</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>657031.6005129631</v>
+        <v>832567.8375447831</v>
       </c>
       <c r="C49" t="n">
-        <v>774125.3254865708</v>
+        <v>866978.0233906911</v>
       </c>
       <c r="D49" t="n">
-        <v>799616.5656501252</v>
+        <v>903437.6234374138</v>
       </c>
       <c r="E49" t="n">
-        <v>821232.1482173144</v>
+        <v>860295.5901079351</v>
       </c>
       <c r="F49" t="n">
-        <v>675388.6095337083</v>
+        <v>871775.8168803165</v>
       </c>
       <c r="G49" t="n">
-        <v>792114.8499230938</v>
+        <v>905401.6208323371</v>
       </c>
       <c r="H49" t="n">
-        <v>817245.962088648</v>
+        <v>941092.531070454</v>
       </c>
       <c r="I49" t="n">
-        <v>838508.6259743148</v>
+        <v>897197.1860869725</v>
       </c>
       <c r="J49" t="n">
-        <v>692319.233604077</v>
+        <v>907939.1717096684</v>
       </c>
       <c r="K49" t="n">
-        <v>808706.5438692747</v>
+        <v>940841.5035207856</v>
       </c>
       <c r="L49" t="n">
-        <v>833505.5108719396</v>
+        <v>975823.4151628662</v>
       </c>
       <c r="M49" t="n">
-        <v>854442.6787294943</v>
+        <v>931233.2555752537</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1885701.988111589</v>
+        <v>2792732.652809761</v>
       </c>
       <c r="C50" t="n">
-        <v>1933019.640331654</v>
+        <v>2750248.351354332</v>
       </c>
       <c r="D50" t="n">
-        <v>1937575.174482719</v>
+        <v>2884542.911185849</v>
       </c>
       <c r="E50" t="n">
-        <v>2030164.098683001</v>
+        <v>2773665.997066546</v>
       </c>
       <c r="F50" t="n">
-        <v>1962128.535150022</v>
+        <v>2913683.864038576</v>
       </c>
       <c r="G50" t="n">
-        <v>2007149.4885542</v>
+        <v>2868780.451937102</v>
       </c>
       <c r="H50" t="n">
-        <v>2009477.342125258</v>
+        <v>3000704.285063988</v>
       </c>
       <c r="I50" t="n">
-        <v>2099905.529910205</v>
+        <v>2887504.060468065</v>
       </c>
       <c r="J50" t="n">
-        <v>2029774.162383397</v>
+        <v>3025245.084833048</v>
       </c>
       <c r="K50" t="n">
-        <v>2072762.292927102</v>
+        <v>2978110.368603507</v>
       </c>
       <c r="L50" t="n">
-        <v>2073118.412121172</v>
+        <v>3107847.525279187</v>
       </c>
       <c r="M50" t="n">
-        <v>2161634.118238881</v>
+        <v>2992504.359323496</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2879836.57987015</v>
+        <v>3149043.335892372</v>
       </c>
       <c r="C51" t="n">
-        <v>2900792.890529951</v>
+        <v>3063391.792698703</v>
       </c>
       <c r="D51" t="n">
-        <v>2943118.293415487</v>
+        <v>3156216.333453716</v>
       </c>
       <c r="E51" t="n">
-        <v>3072720.51238673</v>
+        <v>3193900.575719607</v>
       </c>
       <c r="F51" t="n">
-        <v>3005808.593040809</v>
+        <v>3275664.062329305</v>
       </c>
       <c r="G51" t="n">
-        <v>3024245.46279819</v>
+        <v>3187479.273367377</v>
       </c>
       <c r="H51" t="n">
-        <v>3064101.813612136</v>
+        <v>3277821.249899745</v>
       </c>
       <c r="I51" t="n">
-        <v>3191284.361565744</v>
+        <v>3313072.595524976</v>
       </c>
       <c r="J51" t="n">
-        <v>3122001.164634815</v>
+        <v>3392451.859398304</v>
       </c>
       <c r="K51" t="n">
-        <v>3138114.182370917</v>
+        <v>3301930.547806674</v>
       </c>
       <c r="L51" t="n">
-        <v>3175693.158215798</v>
+        <v>3389982.747500732</v>
       </c>
       <c r="M51" t="n">
-        <v>3300643.878711273</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2811966.463606022</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2936710.145818169</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2781943.660052484</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3000807.300964353</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2876329.588750166</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2999785.616469741</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2843757.237143517</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3061384.230051347</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2935694.610324739</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3057962.976063001</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2900770.695228289</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3117257.071746291</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1640425.137429368</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1651562.77597788</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1768410.736245129</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1713916.225167119</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1716187.32450847</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1725807.368662757</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1841168.133509653</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1785216.217062501</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1786059.104360611</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1794279.545025266</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1908268.741877436</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1850972.731350718</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>709220.2241303825</v>
-      </c>
-      <c r="C54" t="n">
-        <v>981376.3239092749</v>
-      </c>
-      <c r="D54" t="n">
-        <v>786188.8577062042</v>
-      </c>
-      <c r="E54" t="n">
-        <v>702499.695183944</v>
-      </c>
-      <c r="F54" t="n">
-        <v>713112.4685506013</v>
-      </c>
-      <c r="G54" t="n">
-        <v>985005.7874439815</v>
-      </c>
-      <c r="H54" t="n">
-        <v>789573.2817370632</v>
-      </c>
-      <c r="I54" t="n">
-        <v>705655.6233014534</v>
-      </c>
-      <c r="J54" t="n">
-        <v>716055.3274217336</v>
-      </c>
-      <c r="K54" t="n">
-        <v>987749.9622201284</v>
-      </c>
-      <c r="L54" t="n">
-        <v>792132.1863708907</v>
-      </c>
-      <c r="M54" t="n">
-        <v>708041.7661163866</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3522205.490621023</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3898860.033885397</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4270205.941432828</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3896253.61622186</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3523321.631891448</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3899827.058138473</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4271043.770774701</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3896979.511155591</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3523950.546908484</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3900371.949802918</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4271515.864647385</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3897388.53305695</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4568152.273601068</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4793126.886382423</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4391158.560222312</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4710276.490393275</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4706298.621656047</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4928510.25172574</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4523834.203623233</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4840298.567383382</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4833720.204634433</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5053383.351622098</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4646209.791127675</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4960226.593751646</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4790159.870119742</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5141242.768007209</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4807436.942892181</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4912360.104408044</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4790239.109765784</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5141306.159828994</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4807487.656433571</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4912400.675308325</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4790271.566539744</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5141332.125291151</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4807508.428837688</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4912417.293259132</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4819705.669079741</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5131881.173774136</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5068617.089892987</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5314433.743801384</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4944407.213693419</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5253721.078962899</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5187661.024291682</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5430745.869087147</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5058050.219167197</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5364756.215337402</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5296148.136703975</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5536743.429353666</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3006144.688405116</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3066002.516466815</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3067296.48375365</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3336292.581297692</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3093298.583815623</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3151412.971910129</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3150998.3752718</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3418320.087266981</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3173685.198902842</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3230191.520749589</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3228201.025868764</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3493978.364132973</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3969111.324604236</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4080796.837000164</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4119853.984634742</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4205442.317742381</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4065219.689973453</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4174768.622803302</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4211736.689049765</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4295282.383017981</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4153062.525903348</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4260658.629678691</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4295717.280101512</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4377396.006359902</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2650614.158628281</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2648275.084099745</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2890714.287861501</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2916257.712074404</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2650815.677608515</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2648436.299283973</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2890843.260008915</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2916360.889792361</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2650898.219782901</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2648502.333023499</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2890896.08700055</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2916403.151385679</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5492052.977522468</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5591463.361343236</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5985024.791309656</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5832644.407307985</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5579628.910002911</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5677286.142697482</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6069129.517240193</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5915065.470949041</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5660400.015984915</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5756440.320929982</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6146699.13641884</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5991082.251792201</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2882971.21420254</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2824008.962523936</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2949296.621215371</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3111530.721027182</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2931239.686834667</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2871310.784354795</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2995651.150921974</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3156956.9295991</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2975756.165338072</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2914935.751541011</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3038402.460683657</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3198852.0782771</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2284800.820526307</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2235550.059843763</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2179615.773359914</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2075195.118247035</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2284960.342325489</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2235677.677284661</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2179717.867313874</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2075276.793411196</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2285025.682457612</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2235729.949390995</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2179759.68499945</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2075310.247560064</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2368528.980771668</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2346721.294463638</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2349875.762981674</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2399003.439765041</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2455550.826049226</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2432001.824208768</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2433449.821086433</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2480905.17289184</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2535813.697582461</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2510658.62792728</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2510532.69456238</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2556445.610621456</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5230013.290403078</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5422974.85158129</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5267077.494270499</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5406123.477028282</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5418474.045513519</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5607666.311856055</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5448075.047201004</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5583501.002324222</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5592303.945259135</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5778019.540063275</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5615021.138771497</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5747108.101432203</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>904012.2674269498</v>
-      </c>
-      <c r="C67" t="n">
-        <v>898352.3776931933</v>
-      </c>
-      <c r="D67" t="n">
-        <v>931951.5352862109</v>
-      </c>
-      <c r="E67" t="n">
-        <v>967600.0925031318</v>
-      </c>
-      <c r="F67" t="n">
-        <v>943465.2765342174</v>
-      </c>
-      <c r="G67" t="n">
-        <v>937015.9117904222</v>
-      </c>
-      <c r="H67" t="n">
-        <v>969841.3921745215</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1004731.753861516</v>
-      </c>
-      <c r="J67" t="n">
-        <v>979853.9142453064</v>
-      </c>
-      <c r="K67" t="n">
-        <v>972676.3941396691</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1004788.289925339</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1038979.346208844</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2944414.534499552</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3072787.872418365</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3048041.360871579</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3198018.827672847</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3145418.056519643</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3269771.208423398</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3241084.916893414</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3387201.401576476</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3330816.870167448</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3451461.939196114</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3419141.728580646</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3561696.974649395</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2799881.152942083</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2877028.929608252</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2795646.984394153</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2892672.098683982</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2912443.102147444</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2987338.808251853</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2903749.850524927</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2998612.108857004</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3016263.529460473</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3089082.060021001</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3003457.48560669</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3096324.854623724</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>45975190.46462651</v>
-      </c>
-      <c r="C70" t="n">
-        <v>51043861.91462665</v>
-      </c>
-      <c r="D70" t="n">
-        <v>54282294.96297172</v>
-      </c>
-      <c r="E70" t="n">
-        <v>59136405.33330908</v>
-      </c>
-      <c r="F70" t="n">
-        <v>62369377.92083205</v>
-      </c>
-      <c r="G70" t="n">
-        <v>66144167.53009145</v>
-      </c>
-      <c r="H70" t="n">
-        <v>68190836.0412993</v>
-      </c>
-      <c r="I70" t="n">
-        <v>71947239.75307134</v>
-      </c>
-      <c r="J70" t="n">
-        <v>74169140.21123467</v>
-      </c>
-      <c r="K70" t="n">
-        <v>77012654.74550824</v>
-      </c>
-      <c r="L70" t="n">
-        <v>78201547.39670981</v>
-      </c>
-      <c r="M70" t="n">
-        <v>81167873.66973938</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>27364497.53494362</v>
-      </c>
-      <c r="C71" t="n">
-        <v>32366623.24854697</v>
-      </c>
-      <c r="D71" t="n">
-        <v>34652183.72146766</v>
-      </c>
-      <c r="E71" t="n">
-        <v>41070043.1705558</v>
-      </c>
-      <c r="F71" t="n">
-        <v>35638142.0987397</v>
-      </c>
-      <c r="G71" t="n">
-        <v>40474794.25766525</v>
-      </c>
-      <c r="H71" t="n">
-        <v>42598190.66026977</v>
-      </c>
-      <c r="I71" t="n">
-        <v>48857129.3334508</v>
-      </c>
-      <c r="J71" t="n">
-        <v>43269485.9139884</v>
-      </c>
-      <c r="K71" t="n">
-        <v>47953510.5847084</v>
-      </c>
-      <c r="L71" t="n">
-        <v>49927332.06110955</v>
-      </c>
-      <c r="M71" t="n">
-        <v>56039687.31860457</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1853465.158865304</v>
-      </c>
-      <c r="C72" t="n">
-        <v>557185.5746997927</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1774487.335664125</v>
-      </c>
-      <c r="E72" t="n">
-        <v>606430.7254002503</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1852865.8469781</v>
-      </c>
-      <c r="G72" t="n">
-        <v>556706.1247356766</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1774103.775329349</v>
-      </c>
-      <c r="I72" t="n">
-        <v>606123.8768416437</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1852620.367898585</v>
-      </c>
-      <c r="K72" t="n">
-        <v>556509.741285961</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1773946.668420694</v>
-      </c>
-      <c r="M72" t="n">
-        <v>605998.1911956127</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11518696.47061625</v>
-      </c>
-      <c r="C73" t="n">
-        <v>11892376.02663442</v>
-      </c>
-      <c r="D73" t="n">
-        <v>11937237.15117056</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12237070.53744277</v>
-      </c>
-      <c r="F73" t="n">
-        <v>11940740.42531813</v>
-      </c>
-      <c r="G73" t="n">
-        <v>12305978.51044649</v>
-      </c>
-      <c r="H73" t="n">
-        <v>12342567.00534734</v>
-      </c>
-      <c r="I73" t="n">
-        <v>12634293.22617698</v>
-      </c>
-      <c r="J73" t="n">
-        <v>12330018.10328659</v>
-      </c>
-      <c r="K73" t="n">
-        <v>12687470.08900511</v>
-      </c>
-      <c r="L73" t="n">
-        <v>12716428.2174021</v>
-      </c>
-      <c r="M73" t="n">
-        <v>13000676.68975736</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>17680677.85722006</v>
-      </c>
-      <c r="C74" t="n">
-        <v>19841801.29284264</v>
-      </c>
-      <c r="D74" t="n">
-        <v>20751523.31006188</v>
-      </c>
-      <c r="E74" t="n">
-        <v>21101060.69324795</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17683317.48092947</v>
-      </c>
-      <c r="G74" t="n">
-        <v>19844032.67807185</v>
-      </c>
-      <c r="H74" t="n">
-        <v>20753409.59408918</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21102655.24867705</v>
-      </c>
-      <c r="J74" t="n">
-        <v>17684665.4258729</v>
-      </c>
-      <c r="K74" t="n">
-        <v>19845172.15277267</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20754372.84010315</v>
-      </c>
-      <c r="M74" t="n">
-        <v>21103469.52115081</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>30000281.0348806</v>
-      </c>
-      <c r="C75" t="n">
-        <v>32382241.99631004</v>
-      </c>
-      <c r="D75" t="n">
-        <v>32380120.74725095</v>
-      </c>
-      <c r="E75" t="n">
-        <v>35108551.67641222</v>
-      </c>
-      <c r="F75" t="n">
-        <v>31268976.56303636</v>
-      </c>
-      <c r="G75" t="n">
-        <v>33625562.04263961</v>
-      </c>
-      <c r="H75" t="n">
-        <v>33598572.85281805</v>
-      </c>
-      <c r="I75" t="n">
-        <v>36302633.23083072</v>
-      </c>
-      <c r="J75" t="n">
-        <v>32439175.00751186</v>
-      </c>
-      <c r="K75" t="n">
-        <v>34772355.06894989</v>
-      </c>
-      <c r="L75" t="n">
-        <v>34722428.59831373</v>
-      </c>
-      <c r="M75" t="n">
-        <v>37404010.46953561</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>19565499.83360685</v>
-      </c>
-      <c r="C76" t="n">
-        <v>19522103.89161751</v>
-      </c>
-      <c r="D76" t="n">
-        <v>20689371.68887405</v>
-      </c>
-      <c r="E76" t="n">
-        <v>20822324.28829207</v>
-      </c>
-      <c r="F76" t="n">
-        <v>20178458.75613453</v>
-      </c>
-      <c r="G76" t="n">
-        <v>20122803.63569464</v>
-      </c>
-      <c r="H76" t="n">
-        <v>21278057.43806963</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21399236.32250375</v>
-      </c>
-      <c r="J76" t="n">
-        <v>20743832.54966197</v>
-      </c>
-      <c r="K76" t="n">
-        <v>20676869.95335153</v>
-      </c>
-      <c r="L76" t="n">
-        <v>21821042.42937338</v>
-      </c>
-      <c r="M76" t="n">
-        <v>21931361.61398142</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>22944991.47840101</v>
-      </c>
-      <c r="C77" t="n">
-        <v>24775600.42065278</v>
-      </c>
-      <c r="D77" t="n">
-        <v>25379258.04873979</v>
-      </c>
-      <c r="E77" t="n">
-        <v>26044308.43800616</v>
-      </c>
-      <c r="F77" t="n">
-        <v>26584688.44951193</v>
-      </c>
-      <c r="G77" t="n">
-        <v>28342502.95603945</v>
-      </c>
-      <c r="H77" t="n">
-        <v>28874822.04704282</v>
-      </c>
-      <c r="I77" t="n">
-        <v>29469960.67969479</v>
-      </c>
-      <c r="J77" t="n">
-        <v>29941827.17925149</v>
-      </c>
-      <c r="K77" t="n">
-        <v>31632498.45341129</v>
-      </c>
-      <c r="L77" t="n">
-        <v>32099017.18584982</v>
-      </c>
-      <c r="M77" t="n">
-        <v>32629671.47608065</v>
+        <v>3422990.126856343</v>
       </c>
     </row>
   </sheetData>
